--- a/flows/TMV_fund_flow_data.xlsx
+++ b/flows/TMV_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3742"/>
+  <dimension ref="A1:B3755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37855,6 +37855,136 @@
         <v>-12.5027</v>
       </c>
     </row>
+    <row r="3743">
+      <c r="A3743" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B3743" t="n">
+        <v>-27.37725</v>
+      </c>
+    </row>
+    <row r="3744">
+      <c r="A3744" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B3744" t="n">
+        <v>10.797</v>
+      </c>
+    </row>
+    <row r="3745">
+      <c r="A3745" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B3745" t="n">
+        <v>-19.0355</v>
+      </c>
+    </row>
+    <row r="3746">
+      <c r="A3746" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B3746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3747">
+      <c r="A3747" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B3747" t="n">
+        <v>8.924250000000001</v>
+      </c>
+    </row>
+    <row r="3748">
+      <c r="A3748" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3748" t="n">
+        <v>-1.75185</v>
+      </c>
+    </row>
+    <row r="3749">
+      <c r="A3749" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3749" t="n">
+        <v>8.579000000000001</v>
+      </c>
+    </row>
+    <row r="3750">
+      <c r="A3750" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3750" t="n">
+        <v>-3.3737</v>
+      </c>
+    </row>
+    <row r="3751">
+      <c r="A3751" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3751" t="n">
+        <v>1.7082</v>
+      </c>
+    </row>
+    <row r="3752">
+      <c r="A3752" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3752" t="n">
+        <v>-3.2724</v>
+      </c>
+    </row>
+    <row r="3753">
+      <c r="A3753" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3753" t="n">
+        <v>-1.6083</v>
+      </c>
+    </row>
+    <row r="3754">
+      <c r="A3754" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3754" t="n">
+        <v>3.2273</v>
+      </c>
+    </row>
+    <row r="3755">
+      <c r="A3755" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3755" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
